--- a/8_annexe/5_orthophoto-agisoft/calcul.xlsx
+++ b/8_annexe/5_orthophoto-agisoft/calcul.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Centre plan</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Direction vertical du plan</t>
+  </si>
+  <si>
+    <t>Coordonnées des 3 repères</t>
+  </si>
+  <si>
+    <t>Distance entre repères</t>
+  </si>
+  <si>
+    <t>Précalcul</t>
+  </si>
+  <si>
+    <t>Annexe 5</t>
   </si>
 </sst>
 </file>
@@ -52,9 +64,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +78,29 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,32 +216,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,116 +541,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L8"/>
+  <dimension ref="A3:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>636.09320700000001</v>
-      </c>
-      <c r="B7">
-        <v>430.42140999999998</v>
-      </c>
-      <c r="C7">
-        <v>502.31847299999998</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.23365</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-0.97228999999999999</v>
-      </c>
-      <c r="F7" s="6">
-        <v>7.4939999999999998E-3</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>633.57850099999996</v>
+      </c>
+      <c r="B7" s="11">
+        <v>429.80347999999998</v>
+      </c>
+      <c r="C7" s="11">
+        <v>502.268461</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.243927</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.96979000000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-2.565E-3</v>
+      </c>
+      <c r="G7" s="4">
         <f>-E7*H7/D7</f>
-        <v>4.1613096511876737</v>
-      </c>
-      <c r="H7" s="8">
+        <v>3.9757386431186381</v>
+      </c>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J7" s="4">
+        <f>(E7*I7)-F7*H7</f>
+        <v>2.565E-3</v>
+      </c>
+      <c r="K7" s="4">
+        <f>F7*G7-I7*D7</f>
+        <v>-1.0197769619599307E-2</v>
+      </c>
+      <c r="L7" s="4">
+        <f>D7*H7-G7*E7</f>
+        <v>4.0995585787100239</v>
+      </c>
+      <c r="M7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="G10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f>G7*(-$M$7/2)+G12</f>
+        <v>617.66528642752542</v>
+      </c>
+      <c r="B12" s="4">
+        <f>H7*(-$M$7/2)+H12</f>
+        <v>425.84427107847836</v>
+      </c>
+      <c r="C12" s="4">
+        <f>I7*(-$M$7/2)+I12</f>
+        <v>485.87022668515988</v>
+      </c>
+      <c r="G12" s="17">
+        <f>J7*(-$M$7/2)+A7</f>
+        <v>633.56824099999994</v>
+      </c>
+      <c r="H12" s="17">
+        <f>K7*(-$M$7/2)+B7</f>
+        <v>429.84427107847836</v>
+      </c>
+      <c r="I12" s="17">
+        <f>L7*(-$M$7/2)+C7</f>
+        <v>485.87022668515988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f>G7*($M$7/2)+G12</f>
+        <v>649.47119557247447</v>
+      </c>
+      <c r="B13" s="4">
+        <f>H7*($M$7/2)+H12</f>
+        <v>433.84427107847836</v>
+      </c>
+      <c r="C13" s="4">
+        <f>I7*($M$7/2)+I12</f>
+        <v>485.87022668515988</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f>J7*($M$7)+A13</f>
+        <v>649.4917155724745</v>
+      </c>
+      <c r="B14" s="4">
+        <f>K7*($M$7)+B13</f>
+        <v>433.76268892152154</v>
+      </c>
+      <c r="C14" s="4">
+        <f>L7*($M$7)+C13</f>
+        <v>518.66669531484013</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G10:I10"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/8_annexe/5_orthophoto-agisoft/calcul.xlsx
+++ b/8_annexe/5_orthophoto-agisoft/calcul.xlsx
@@ -50,13 +50,13 @@
     <t>Coordonnées des 3 repères</t>
   </si>
   <si>
-    <t>Distance entre repères</t>
-  </si>
-  <si>
     <t>Précalcul</t>
   </si>
   <si>
     <t>Annexe 5</t>
+  </si>
+  <si>
+    <t>facteur entre repères</t>
   </si>
 </sst>
 </file>
@@ -233,34 +233,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +544,7 @@
   <dimension ref="A3:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,34 +553,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
+      <c r="A3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10" t="s">
-        <v>8</v>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -620,16 +620,16 @@
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>633.57850099999996</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>429.80347999999998</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>502.268461</v>
       </c>
       <c r="D7" s="3">
@@ -670,16 +670,16 @@
     <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="G10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="G10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -691,13 +691,13 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -714,15 +714,15 @@
         <f>I7*(-$M$7/2)+I12</f>
         <v>485.87022668515988</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <f>J7*(-$M$7/2)+A7</f>
         <v>633.56824099999994</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="11">
         <f>K7*(-$M$7/2)+B7</f>
         <v>429.84427107847836</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <f>L7*(-$M$7/2)+C7</f>
         <v>485.87022668515988</v>
       </c>
@@ -740,9 +740,9 @@
         <f>I7*($M$7/2)+I12</f>
         <v>485.87022668515988</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -757,74 +757,74 @@
         <f>L7*($M$7)+C13</f>
         <v>518.66669531484013</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/8_annexe/5_orthophoto-agisoft/calcul.xlsx
+++ b/8_annexe/5_orthophoto-agisoft/calcul.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A3:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,17 +633,17 @@
         <v>502.268461</v>
       </c>
       <c r="D7" s="3">
-        <v>0.243927</v>
+        <v>-0.249472</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.96979000000000004</v>
+        <v>0.96836299999999997</v>
       </c>
       <c r="F7" s="3">
-        <v>-2.565E-3</v>
+        <v>6.0260000000000001E-3</v>
       </c>
       <c r="G7" s="4">
         <f>-E7*H7/D7</f>
-        <v>3.9757386431186381</v>
+        <v>3.8816500448948177</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -653,15 +653,15 @@
       </c>
       <c r="J7" s="4">
         <f>(E7*I7)-F7*H7</f>
-        <v>2.565E-3</v>
+        <v>-6.0260000000000001E-3</v>
       </c>
       <c r="K7" s="4">
         <f>F7*G7-I7*D7</f>
-        <v>-1.0197769619599307E-2</v>
+        <v>2.339082317053617E-2</v>
       </c>
       <c r="L7" s="4">
         <f>D7*H7-G7*E7</f>
-        <v>4.0995585787100239</v>
+        <v>-4.0083182824244803</v>
       </c>
       <c r="M7" s="3">
         <v>8</v>
@@ -704,41 +704,41 @@
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f>G7*(-$M$7/2)+G12</f>
-        <v>617.66528642752542</v>
+        <v>618.07600482042062</v>
       </c>
       <c r="B12" s="4">
         <f>H7*(-$M$7/2)+H12</f>
-        <v>425.84427107847836</v>
+        <v>425.70991670731786</v>
       </c>
       <c r="C12" s="4">
         <f>I7*(-$M$7/2)+I12</f>
-        <v>485.87022668515988</v>
+        <v>518.30173412969793</v>
       </c>
       <c r="G12" s="11">
         <f>J7*(-$M$7/2)+A7</f>
-        <v>633.56824099999994</v>
+        <v>633.60260499999993</v>
       </c>
       <c r="H12" s="11">
         <f>K7*(-$M$7/2)+B7</f>
-        <v>429.84427107847836</v>
+        <v>429.70991670731786</v>
       </c>
       <c r="I12" s="11">
         <f>L7*(-$M$7/2)+C7</f>
-        <v>485.87022668515988</v>
+        <v>518.30173412969793</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f>G7*($M$7/2)+G12</f>
-        <v>649.47119557247447</v>
+        <v>649.12920517957923</v>
       </c>
       <c r="B13" s="4">
         <f>H7*($M$7/2)+H12</f>
-        <v>433.84427107847836</v>
+        <v>433.70991670731786</v>
       </c>
       <c r="C13" s="4">
         <f>I7*($M$7/2)+I12</f>
-        <v>485.87022668515988</v>
+        <v>518.30173412969793</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -747,15 +747,15 @@
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>J7*($M$7)+A13</f>
-        <v>649.4917155724745</v>
+        <v>649.08099717957919</v>
       </c>
       <c r="B14" s="4">
         <f>K7*($M$7)+B13</f>
-        <v>433.76268892152154</v>
+        <v>433.89704329268216</v>
       </c>
       <c r="C14" s="4">
         <f>L7*($M$7)+C13</f>
-        <v>518.66669531484013</v>
+        <v>486.23518787030207</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
